--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>935264.1467322962</v>
+        <v>963568.6883403722</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613248</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6784540.675059067</v>
+        <v>7273899.170241321</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.0010582228894</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7067681456972</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.0673923170406</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>177.0035764610105</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>141.0753921893335</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>291.3595364399966</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>107.082020806836</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>218.633186592279</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>157.477099880134</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1184,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.585437404294</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1370,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>248.7067681456974</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>291.3595364399966</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.0910900114347</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>190.2089000001214</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>253.4730871880425</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>129.6978282642953</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>122.9177036806385</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>139.3463605962276</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.26944720109141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2722,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>90.8024241098036</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.39846623157163</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>122.9177036806387</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>135.9161684076472</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>6.13287386842549</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>74.07475062513829</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>223.3077434611911</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>153.3573077796844</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>164.7842269376184</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>14.63666190966657</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>109.826847404852</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480.4255581239254</v>
+        <v>1020.453694912913</v>
       </c>
       <c r="C2" t="n">
-        <v>480.4255581239254</v>
+        <v>593.5529649262128</v>
       </c>
       <c r="D2" t="n">
-        <v>480.4255581239254</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="E2" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="F2" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>54.44861827178296</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="M2" t="n">
-        <v>728.2502693850971</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="N2" t="n">
-        <v>1257.271276480617</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O2" t="n">
-        <v>1931.072927593931</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U2" t="n">
-        <v>2471.211955866222</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V2" t="n">
-        <v>2113.722540992471</v>
+        <v>2653.750677781458</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.331191292818</v>
+        <v>2257.359328081805</v>
       </c>
       <c r="X2" t="n">
-        <v>1305.611192460565</v>
+        <v>1845.639329249552</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.2739224154554</v>
+        <v>1440.302059204443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>643.169810791496</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="M3" t="n">
-        <v>643.169810791496</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="N3" t="n">
-        <v>1316.97146190481</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="O3" t="n">
-        <v>1316.97146190481</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.0969517256838</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="C4" t="n">
-        <v>766.0969517256838</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="D4" t="n">
-        <v>766.0969517256838</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="E4" t="n">
-        <v>766.0969517256838</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="F4" t="n">
-        <v>766.0969517256838</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G4" t="n">
-        <v>766.0969517256838</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.73345652166</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.021989129689</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.169585302202</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.605688748007</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.2629204377495</v>
+        <v>533.6940685400498</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2160.082153146776</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.181423160076</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.888802345077</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9118624929341</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554035</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N5" t="n">
-        <v>918.7421318583365</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.543782971651</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P5" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="W5" t="n">
-        <v>2579.930517438306</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="X5" t="n">
-        <v>2579.930517438306</v>
+        <v>3300.585305080418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2579.930517438306</v>
+        <v>2895.248035035309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L6" t="n">
-        <v>725.1891208761992</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M6" t="n">
-        <v>725.1891208761992</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N6" t="n">
-        <v>725.1891208761992</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O6" t="n">
-        <v>725.1891208761992</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>894.0649040444501</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C7" t="n">
-        <v>722.0923409233661</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D7" t="n">
-        <v>558.7755680501368</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E7" t="n">
-        <v>392.5673622029904</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>220.7055879775508</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2234.861645684911</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T7" t="n">
-        <v>1991.522297910811</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U7" t="n">
-        <v>1991.522297910811</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V7" t="n">
-        <v>1709.81083051884</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W7" t="n">
-        <v>1434.958426691353</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X7" t="n">
-        <v>1192.394530137158</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y7" t="n">
-        <v>1084.230872756516</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>973.1823756976778</v>
+        <v>2307.845523803771</v>
       </c>
       <c r="C8" t="n">
-        <v>546.281645710978</v>
+        <v>1880.944793817072</v>
       </c>
       <c r="D8" t="n">
-        <v>546.281645710978</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E8" t="n">
-        <v>546.281645710978</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F8" t="n">
-        <v>546.281645710978</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>396.6319083693174</v>
       </c>
       <c r="L8" t="n">
-        <v>701.0259602492056</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.902374529931</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="X8" t="n">
-        <v>973.1823756976778</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="Y8" t="n">
-        <v>973.1823756976778</v>
+        <v>2727.693888095302</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M9" t="n">
-        <v>515.5329466256644</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T10" t="n">
-        <v>2017.687984891219</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.687984891219</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V10" t="n">
-        <v>2017.687984891219</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>731.6445158468521</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C11" t="n">
-        <v>731.6445158468521</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D11" t="n">
-        <v>731.6445158468521</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E11" t="n">
-        <v>305.6675759947096</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F11" t="n">
-        <v>305.6675759947096</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G11" t="n">
-        <v>305.6675759947096</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>54.44861827178296</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>244.9404807450223</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N11" t="n">
-        <v>918.7421318583365</v>
+        <v>3456.610306670527</v>
       </c>
       <c r="O11" t="n">
-        <v>1592.543782971651</v>
+        <v>3456.610306670527</v>
       </c>
       <c r="P11" t="n">
-        <v>2266.345434084965</v>
+        <v>3456.610306670527</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V11" t="n">
-        <v>2364.941498715398</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="W11" t="n">
-        <v>1968.550149015745</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="X11" t="n">
-        <v>1556.830150183492</v>
+        <v>3300.585305080418</v>
       </c>
       <c r="Y11" t="n">
-        <v>1151.492880138382</v>
+        <v>2895.248035035309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J12" t="n">
-        <v>326.146107551374</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K12" t="n">
-        <v>326.146107551374</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L12" t="n">
-        <v>326.146107551374</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="M12" t="n">
-        <v>999.9477586646882</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1991.522297910811</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.522297910811</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.81083051884</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.958426691353</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>1434.958426691353</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1006.244800061301</v>
+        <v>1348.068047996662</v>
       </c>
       <c r="C14" t="n">
-        <v>579.3440700746016</v>
+        <v>921.1673180099626</v>
       </c>
       <c r="D14" t="n">
-        <v>579.3440700746016</v>
+        <v>497.8746971949629</v>
       </c>
       <c r="E14" t="n">
-        <v>579.3440700746016</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="F14" t="n">
-        <v>579.3440700746016</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="K14" t="n">
-        <v>583.4696253673028</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L14" t="n">
-        <v>1257.271276480617</v>
+        <v>970.2737227554035</v>
       </c>
       <c r="M14" t="n">
-        <v>1931.072927593931</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N14" t="n">
-        <v>2604.874578707245</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T14" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.150433230194</v>
+        <v>3338.854445738958</v>
       </c>
       <c r="V14" t="n">
-        <v>2243.150433230194</v>
+        <v>2981.365030865208</v>
       </c>
       <c r="W14" t="n">
-        <v>2243.150433230194</v>
+        <v>2584.973681165555</v>
       </c>
       <c r="X14" t="n">
-        <v>1831.430434397941</v>
+        <v>2173.253682333302</v>
       </c>
       <c r="Y14" t="n">
-        <v>1426.093164352832</v>
+        <v>1767.916412288193</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="M15" t="n">
-        <v>725.1891208761992</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="N15" t="n">
-        <v>1398.990771989513</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2017.687984891219</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5513,37 +5515,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5598,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1044.750611886929</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>2001.004273426986</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.151869599499</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1234.916580598995</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>739.6560874287652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3729.364118014585</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C22" t="n">
-        <v>3557.391554893501</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D22" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T22" t="n">
-        <v>4945.000622810562</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U22" t="n">
-        <v>4945.000622810562</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V22" t="n">
-        <v>4663.289155418591</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W22" t="n">
-        <v>4388.436751591104</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X22" t="n">
-        <v>4145.872855036909</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y22" t="n">
-        <v>3919.530086726651</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>1155.589460012876</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>795.2884438199453</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>623.3158806988613</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>459.999107825632</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>293.7909019784855</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>293.7909019784855</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>293.7909019784855</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>985.454412532011</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.454412532011</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6531,7 +6533,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H30" t="n">
         <v>102.3027134058285</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.7293243828378</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>517.7293243828378</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>517.7293243828378</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E31" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F31" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6777,19 +6779,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.5090203395509</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>534.5364572184669</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5364572184669</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.017757361875</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.017757361875</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>896.6749890516166</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>537.3606176598659</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>365.3880545387818</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2276.520918729638</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2033.181570955538</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1752.997122455842</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1471.285655063871</v>
       </c>
       <c r="W37" t="n">
-        <v>1185.483835930065</v>
+        <v>1196.433251236384</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.483835930065</v>
+        <v>953.8693546821894</v>
       </c>
       <c r="Y37" t="n">
-        <v>1185.483835930065</v>
+        <v>727.5265863719314</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7178,25 +7180,25 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7254,19 +7256,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,22 +7356,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025265</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1790.689676197778</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
         <v>1601.992572952389</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1485.525280420256</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C41" t="n">
-        <v>1058.624550433556</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="D41" t="n">
-        <v>635.3319296185562</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="E41" t="n">
-        <v>209.3549897664137</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K41" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1474.987448089748</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="M41" t="n">
-        <v>1474.987448089748</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="N41" t="n">
-        <v>1474.987448089748</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W41" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.710914756895</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.373644711786</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K42" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L42" t="n">
-        <v>515.5329466256644</v>
+        <v>101.1158936885247</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>990.8506408059275</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>2325.683399131046</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>2162.366626257817</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>1996.15842041067</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>1514.243407987617</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157888</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298595</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.887736900259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>3431.580999656135</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>3156.728595828648</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>2914.164699274454</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>2687.821930964195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1384.902374529931</v>
+        <v>1363.1586028072</v>
       </c>
       <c r="C44" t="n">
-        <v>958.0016445432307</v>
+        <v>936.2578728205003</v>
       </c>
       <c r="D44" t="n">
-        <v>958.0016445432307</v>
+        <v>936.2578728205003</v>
       </c>
       <c r="E44" t="n">
-        <v>958.0016445432307</v>
+        <v>936.2578728205003</v>
       </c>
       <c r="F44" t="n">
-        <v>791.5529304648283</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>701.0259602492056</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M44" t="n">
-        <v>1374.82761136252</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.629262475834</v>
+        <v>1467.822123446195</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>2996.455585675746</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>2600.064235976093</v>
       </c>
       <c r="X44" t="n">
-        <v>1384.902374529931</v>
+        <v>2188.34423714384</v>
       </c>
       <c r="Y44" t="n">
-        <v>1384.902374529931</v>
+        <v>1783.00696709873</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473226</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>54.44861827178296</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M45" t="n">
-        <v>515.5329466256644</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.334597738979</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2187.823032372085</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2187.823032372085</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.638583872389</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.638583872389</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>406.3151993988449</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N2" t="n">
-        <v>571.6442764662843</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>335.2191880053509</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>38.14846281405144</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N5" t="n">
-        <v>229.6956455346879</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>700.0307459106097</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>78.94296429546841</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>363.7788947609679</v>
       </c>
       <c r="L8" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,16 +8540,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>488.8385263243295</v>
+        <v>228.1560083209544</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,25 +8692,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M11" t="n">
-        <v>229.8472855996736</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>175.7989781101474</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>212.6428656623198</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>729.0348141523162</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>38.14846281405144</v>
       </c>
       <c r="K14" t="n">
-        <v>203.8631344095814</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846871</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>700.6124397087081</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>666.8880674041833</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9732,10 +9734,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>475.2939470053066</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10826,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890872</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,10 +11062,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>426.325900905103</v>
+        <v>359.3348700194716</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
@@ -11072,10 +11074,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1409796453348</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>52.02835575029447</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975833</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>920.0649949987969</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>691.4204686724437</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>358.3024504212947</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>232.0586363839603</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -22562,10 +22564,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>7.064592163854655</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22714,13 +22716,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>19.29091348988652</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>47.07576416614492</v>
       </c>
     </row>
     <row r="5">
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22844,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>251.3520440133231</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>116.2432624039336</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22990,13 +22992,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>116.9973198203193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>200.4265080145707</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8185719063118</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>46.18292659500813</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23315,13 +23317,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>116.2432624039336</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.9882506157206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>210.0867717863244</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.298273121509339</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -23710,10 +23712,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.55500922557786</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>117.2205539080144</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.33724454826941</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.809893426064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>51.55588169712355</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.8658427933734</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>117.2205539080142</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>136.1877113815649</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>162.300823137631</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>198.0291291640738</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -25606,13 +25608,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>199.3239792256418</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>267.5156322128093</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>256.0887130548754</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>339.2778588153465</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>162.2770323843601</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471730.0464285798</v>
+        <v>555986.7923702382</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471730.0464285798</v>
+        <v>555986.792370238</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471730.0464285798</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>471730.0464285797</v>
+        <v>555986.792370238</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>471730.0464285798</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>702803.357241357</v>
+        <v>702803.3572413571</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>702803.3572413571</v>
+        <v>702803.357241357</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>702803.3572413571</v>
+        <v>702803.357241357</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>702803.357241357</v>
+        <v>702803.3572413571</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>471730.0464285798</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>471730.0464285798</v>
+        <v>555986.792370238</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="C2" t="n">
-        <v>198054.5655916928</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="D2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="E2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="F2" t="n">
-        <v>198054.5655916928</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="G2" t="n">
-        <v>295065.9616471599</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="H2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="I2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="J2" t="n">
-        <v>295065.9616471596</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="K2" t="n">
         <v>295065.9616471597</v>
@@ -26344,16 +26346,16 @@
         <v>295065.9616471597</v>
       </c>
       <c r="M2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="N2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="O2" t="n">
-        <v>198054.5655916928</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="P2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939597</v>
       </c>
       <c r="C4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="D4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792743</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-115161.2718321182</v>
+        <v>-167966.0178317392</v>
       </c>
       <c r="C6" t="n">
-        <v>112926.0319315659</v>
+        <v>133216.3838432359</v>
       </c>
       <c r="D6" t="n">
-        <v>112926.0319315659</v>
+        <v>133216.3838432359</v>
       </c>
       <c r="E6" t="n">
-        <v>146553.6319315658</v>
+        <v>166843.9838432359</v>
       </c>
       <c r="F6" t="n">
-        <v>146553.6319315659</v>
+        <v>166843.9838432358</v>
       </c>
       <c r="G6" t="n">
-        <v>38248.60499061672</v>
+        <v>98030.44601918291</v>
       </c>
       <c r="H6" t="n">
-        <v>202199.7258008025</v>
+        <v>202199.7258008026</v>
       </c>
       <c r="I6" t="n">
+        <v>202199.7258008027</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-32945.48447675873</v>
+      </c>
+      <c r="K6" t="n">
         <v>202199.7258008026</v>
       </c>
-      <c r="J6" t="n">
-        <v>24122.7973120227</v>
-      </c>
-      <c r="K6" t="n">
-        <v>202199.7258008025</v>
-      </c>
       <c r="L6" t="n">
-        <v>202199.7258008025</v>
+        <v>202199.7258008026</v>
       </c>
       <c r="M6" t="n">
         <v>202199.7258008026</v>
@@ -26558,10 +26560,10 @@
         <v>202199.7258008026</v>
       </c>
       <c r="O6" t="n">
-        <v>146553.6319315659</v>
+        <v>166843.9838432359</v>
       </c>
       <c r="P6" t="n">
-        <v>146553.6319315658</v>
+        <v>166843.9838432358</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26814,7 +26816,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="L4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876013</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>368.0031569662219</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N2" t="n">
-        <v>534.3646536318382</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>312.7041012911214</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.728503328464916</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N5" t="n">
-        <v>192.4160227002418</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>677.5156591963801</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>328.0142939661586</v>
       </c>
       <c r="L8" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7417458120015</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M11" t="n">
-        <v>192.4160227002418</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>139.6743035055494</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>191.2998374487782</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>707.2639729474876</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>8.728503328464916</v>
       </c>
       <c r="K14" t="n">
-        <v>168.0985336147721</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>677.5156591963801</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>643.7912868918553</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q29" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.1971664929786</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>388.01385847248</v>
+        <v>321.0228275868487</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.51326903606492</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>321.0228275868487</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>963568.6883403722</v>
+        <v>961650.9706818102</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>187.0010582228894</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>54.36502522376084</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.0035764610105</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>102.5184533874817</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>291.3595364399966</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1138,7 +1138,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>218.633186592279</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>324.1589693718796</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.585437404294</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1372,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>46.04877482597783</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>291.3595364399966</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1615,13 +1615,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>274.8945858552177</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.4730871880425</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1776,10 +1776,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>49.08330557782446</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>129.6978282642953</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>122.9177036806387</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.13287386842549</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>223.3077434611911</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3982,10 +3982,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>14.63666190966657</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.453694912913</v>
+        <v>1328.261731550672</v>
       </c>
       <c r="C2" t="n">
-        <v>593.5529649262128</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="D2" t="n">
-        <v>404.6630071253144</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="E2" t="n">
-        <v>404.6630071253144</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F2" t="n">
-        <v>404.6630071253144</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>1151.729190714879</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>2041.463937832282</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N2" t="n">
-        <v>2041.463937832282</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O2" t="n">
-        <v>2886.608587983094</v>
+        <v>2884.88892140343</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3593.168200561358</v>
       </c>
       <c r="Q2" t="n">
         <v>3594.887867141022</v>
@@ -4357,25 +4357,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>3269.595002058796</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>3011.240092655208</v>
+        <v>3319.048129292967</v>
       </c>
       <c r="V2" t="n">
-        <v>2653.750677781458</v>
+        <v>2961.558714419217</v>
       </c>
       <c r="W2" t="n">
-        <v>2257.359328081805</v>
+        <v>2565.167364719564</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.639329249552</v>
+        <v>2153.447365887311</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.302059204443</v>
+        <v>1748.110095842202</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L3" t="n">
-        <v>700.2421940220529</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M3" t="n">
-        <v>700.2421940220529</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N3" t="n">
-        <v>700.2421940220529</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O3" t="n">
-        <v>700.2421940220529</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P3" t="n">
-        <v>1416.439911060551</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
         <v>1880.58538792333</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.5280998279841</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C4" t="n">
-        <v>343.5280998279841</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D4" t="n">
-        <v>343.5280998279841</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E4" t="n">
-        <v>343.5280998279841</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G4" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
         <v>71.89775734282044</v>
@@ -4512,28 +4512,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T4" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U4" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W4" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X4" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.6940685400498</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2475.399670743779</v>
+        <v>2209.511472910445</v>
       </c>
       <c r="C5" t="n">
-        <v>2048.498940757079</v>
+        <v>1782.610742923745</v>
       </c>
       <c r="D5" t="n">
-        <v>1625.206319942079</v>
+        <v>1359.318122108745</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.229380089937</v>
+        <v>933.3411822566028</v>
       </c>
       <c r="F5" t="n">
-        <v>774.1051982793369</v>
+        <v>508.217000446003</v>
       </c>
       <c r="G5" t="n">
-        <v>369.7661358687856</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282043</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>80.53897563800069</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>80.53897563800069</v>
+        <v>514.1882432512203</v>
       </c>
       <c r="L5" t="n">
-        <v>970.2737227554035</v>
+        <v>514.1882432512203</v>
       </c>
       <c r="M5" t="n">
-        <v>1860.008469872806</v>
+        <v>1403.922990368623</v>
       </c>
       <c r="N5" t="n">
-        <v>2749.743216990209</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="O5" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P5" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141021</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U5" t="n">
-        <v>3594.887867141021</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V5" t="n">
-        <v>3594.887867141021</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="W5" t="n">
-        <v>3594.887867141021</v>
+        <v>2614.848742955554</v>
       </c>
       <c r="X5" t="n">
-        <v>3300.585305080418</v>
+        <v>2614.848742955554</v>
       </c>
       <c r="Y5" t="n">
-        <v>2895.248035035309</v>
+        <v>2209.511472910445</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K6" t="n">
-        <v>934.0801731907511</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L6" t="n">
-        <v>934.0801731907511</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="M6" t="n">
-        <v>934.0801731907511</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N6" t="n">
         <v>991.1041099118586</v>
@@ -4688,10 +4688,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
         <v>129.3890855669785</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.845523803771</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C8" t="n">
-        <v>1880.944793817072</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D8" t="n">
-        <v>1660.103191198608</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E8" t="n">
-        <v>1234.126251346466</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F8" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>396.6319083693174</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="L8" t="n">
-        <v>1286.36665548672</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="M8" t="n">
-        <v>2176.101402604123</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="N8" t="n">
-        <v>2176.101402604123</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>3021.246052754935</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3021.246052754935</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3477.331532259118</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>3490.520573014162</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V8" t="n">
-        <v>3133.031158140411</v>
+        <v>3009.099655341596</v>
       </c>
       <c r="W8" t="n">
-        <v>3133.031158140411</v>
+        <v>3009.099655341596</v>
       </c>
       <c r="X8" t="n">
-        <v>3133.031158140411</v>
+        <v>2597.379656509343</v>
       </c>
       <c r="Y8" t="n">
-        <v>2727.693888095302</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282043</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L9" t="n">
-        <v>71.89775734282043</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M9" t="n">
-        <v>274.9063928733606</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N9" t="n">
-        <v>274.9063928733606</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O9" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
         <v>1880.58538792333</v>
@@ -4925,10 +4925,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.9768228924842</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C10" t="n">
-        <v>124.0042597714002</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D10" t="n">
-        <v>71.89775734282043</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E10" t="n">
-        <v>71.89775734282043</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
         <v>129.3890855669785</v>
@@ -4986,28 +4986,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.797776188157</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.613327688461</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>1229.90186029649</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W10" t="n">
-        <v>955.0494564690027</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X10" t="n">
-        <v>712.4855599148078</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y10" t="n">
-        <v>486.1427916045499</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2475.399670743779</v>
+        <v>1278.8086043165</v>
       </c>
       <c r="C11" t="n">
-        <v>2048.498940757079</v>
+        <v>1278.8086043165</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.206319942079</v>
+        <v>855.5159835014999</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.229380089937</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F11" t="n">
-        <v>774.1051982793369</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7661358687856</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282043</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1677.140812435722</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M11" t="n">
-        <v>2566.875559553125</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N11" t="n">
-        <v>3456.610306670527</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O11" t="n">
-        <v>3456.610306670527</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P11" t="n">
-        <v>3456.610306670527</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
-        <v>3594.887867141021</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141021</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141021</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141021</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V11" t="n">
-        <v>3594.887867141021</v>
+        <v>2912.105587185045</v>
       </c>
       <c r="W11" t="n">
-        <v>3594.887867141021</v>
+        <v>2515.714237485392</v>
       </c>
       <c r="X11" t="n">
-        <v>3300.585305080418</v>
+        <v>2103.994238653139</v>
       </c>
       <c r="Y11" t="n">
-        <v>2895.248035035309</v>
+        <v>1698.65696860803</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
         <v>343.5952466224115</v>
@@ -5129,13 +5129,13 @@
         <v>1180.394054705318</v>
       </c>
       <c r="M12" t="n">
-        <v>1180.394054705318</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N12" t="n">
-        <v>1180.394054705318</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O12" t="n">
-        <v>1180.394054705318</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
         <v>1880.58538792333</v>
@@ -5162,10 +5162,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.1427916045499</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
         <v>129.3890855669785</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1348.068047996662</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C14" t="n">
-        <v>921.1673180099626</v>
+        <v>1177.200739412026</v>
       </c>
       <c r="D14" t="n">
-        <v>497.8746971949629</v>
+        <v>753.908118597026</v>
       </c>
       <c r="E14" t="n">
-        <v>71.89775734282043</v>
+        <v>753.908118597026</v>
       </c>
       <c r="F14" t="n">
-        <v>71.89775734282043</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>80.53897563800069</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>80.53897563800069</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>970.2737227554035</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M14" t="n">
-        <v>1860.008469872806</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="N14" t="n">
-        <v>2749.743216990209</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O14" t="n">
-        <v>3594.887867141021</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3594.887867141021</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3338.854445738958</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V14" t="n">
-        <v>2981.365030865208</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W14" t="n">
-        <v>2584.973681165555</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X14" t="n">
-        <v>2173.253682333302</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y14" t="n">
-        <v>1767.916412288193</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>961.6325044602232</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.367251577626</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1851.113782471695</v>
       </c>
       <c r="P15" t="n">
         <v>1880.58538792333</v>
@@ -5399,10 +5399,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>816.9601359358498</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>644.9875728147658</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>481.6707999415365</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="G16" t="n">
         <v>315.4625940943901</v>
@@ -5433,7 +5433,7 @@
         <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
         <v>129.3890855669785</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>2032.596640731826</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>2032.596640731826</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1750.885173339855</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1476.032769512368</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>1233.468872958174</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>1007.126104647916</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,43 +5524,43 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1044.750611886929</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.48047715319</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1234.916580598995</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.916580598995</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,22 +5761,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3105.626261478503</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478503</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629315</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5837,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2176.752350469914</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1933.413002695814</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6074,22 +6074,22 @@
         <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6229,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6533,7 +6533,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
         <v>102.3027134058285</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6943,28 +6943,28 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>537.3606176598659</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>365.3880545387818</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2276.520918729638</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2033.181570955538</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.997122455842</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1471.285655063871</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1196.433251236384</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>953.8693546821894</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.5265863719314</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7183,28 +7183,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1020.453694912912</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C41" t="n">
-        <v>794.8903176793854</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D41" t="n">
-        <v>794.8903176793854</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E41" t="n">
-        <v>794.8903176793854</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F41" t="n">
-        <v>369.7661358687856</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G41" t="n">
-        <v>369.7661358687856</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
         <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1467.822123446195</v>
+        <v>1403.922990368623</v>
       </c>
       <c r="M41" t="n">
-        <v>1467.822123446195</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="N41" t="n">
-        <v>1467.822123446195</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="O41" t="n">
-        <v>2312.966773597007</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P41" t="n">
-        <v>3021.246052754935</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2653.750677781457</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2257.359328081804</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X41" t="n">
-        <v>1845.639329249551</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y41" t="n">
-        <v>1440.302059204442</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>71.89775734282043</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>101.1158936885247</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="M42" t="n">
-        <v>990.8506408059275</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="N42" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O42" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P42" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q42" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R42" t="n">
         <v>1880.58538792333</v>
@@ -7532,10 +7532,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2497.65596225213</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>2325.683399131046</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>2162.366626257817</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>1996.15842041067</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>1824.296646185231</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>1658.039676479463</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>1514.243407987617</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>1698.493769157888</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>2821.860396298595</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>3467.887736900259</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>3594.887867141021</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>3594.887867141021</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>3594.887867141021</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>3594.887867141021</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>3594.887867141021</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>3431.580999656135</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>3156.728595828648</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>2914.164699274454</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>2687.821930964195</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.1586028072</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>936.2578728205003</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>936.2578728205003</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>936.2578728205003</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>511.1336910099006</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
         <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.009524135215</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>1150.009524135215</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N44" t="n">
-        <v>1467.822123446195</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.966773597007</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P44" t="n">
-        <v>3021.246052754935</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2996.455585675746</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2600.064235976093</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.34423714384</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>1783.00696709873</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>79.34440030473226</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
         <v>351.0418895843234</v>
@@ -7769,10 +7769,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7794,16 +7794,16 @@
         <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>406.3151993988449</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846873</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7999,7 +7999,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>37.86171155375327</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>657.2064368952725</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>38.14846281405144</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>116.2565473518845</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178782</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846871</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197013</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
@@ -8236,7 +8236,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8300,13 +8300,13 @@
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>78.94296429546841</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>921.6378271075471</v>
@@ -8455,13 +8455,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>363.7788947609679</v>
+        <v>547.0672462351855</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178782</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846871</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,7 +8470,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>228.1560083209544</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178782</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846871</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197013</v>
+        <v>358.3024504212951</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.7989781101474</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>730.3607534598156</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>729.0348141523162</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.14846281405144</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178782</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846871</v>
+        <v>798.4234811248743</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197013</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9014,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.0649949987969</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>52.685158758287</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>51.54013964082385</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.074428213577</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
@@ -9485,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>54.56363491934506</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9734,13 +9734,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>501.4810380814832</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>124.3756766890872</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>407.0273017394389</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>359.3348700194716</v>
+        <v>294.7902911532373</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>52.02835575029447</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.0649949987969</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11159,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>358.3024504212947</v>
+        <v>754.4502750946394</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232.0586363839603</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>201.406335085791</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22707,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -22725,7 +22725,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.07576416614492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>297.7772183989641</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>116.2432624039336</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>200.4265080145707</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>29.75555135313346</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,13 +23184,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>375.6683956276432</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>116.2432624039336</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>145.9783541372761</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23551,7 +23551,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>2.298273121509339</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>191.8226487185345</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>40.55500922557786</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>63.52994056050434</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>117.2205539080142</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>162.300823137631</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>199.3239792256418</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>339.2778588153465</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>555986.7923702382</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>555986.792370238</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>555986.792370238</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>555986.7923702381</v>
+        <v>555986.792370238</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>702803.3572413571</v>
+        <v>702803.357241357</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>702803.3572413571</v>
+        <v>702803.357241357</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>702803.3572413571</v>
+        <v>702803.357241357</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>555986.792370238</v>
+        <v>555986.7923702381</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233428.0343931754</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="C2" t="n">
-        <v>233428.0343931754</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="D2" t="n">
         <v>233428.0343931754</v>
@@ -26328,34 +26328,34 @@
         <v>233428.0343931753</v>
       </c>
       <c r="G2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="H2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="I2" t="n">
         <v>295065.9616471597</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>295065.9616471597</v>
-      </c>
-      <c r="I2" t="n">
-        <v>295065.9616471598</v>
-      </c>
-      <c r="J2" t="n">
-        <v>295065.9616471598</v>
       </c>
       <c r="K2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="L2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="M2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471599</v>
       </c>
       <c r="N2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="O2" t="n">
-        <v>233428.0343931753</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="P2" t="n">
-        <v>233428.0343931753</v>
+        <v>233428.0343931754</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11941.75496939597</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="C4" t="n">
         <v>11941.75496939596</v>
@@ -26432,28 +26432,28 @@
         <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>11941.75496939596</v>
@@ -26478,40 +26478,40 @@
         <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167966.0178317392</v>
+        <v>-168310.5624332282</v>
       </c>
       <c r="C6" t="n">
-        <v>133216.3838432359</v>
+        <v>132871.8392417469</v>
       </c>
       <c r="D6" t="n">
-        <v>133216.3838432359</v>
+        <v>132871.839241747</v>
       </c>
       <c r="E6" t="n">
-        <v>166843.9838432359</v>
+        <v>166499.4392417468</v>
       </c>
       <c r="F6" t="n">
-        <v>166843.9838432358</v>
+        <v>166499.4392417468</v>
       </c>
       <c r="G6" t="n">
-        <v>98030.44601918291</v>
+        <v>97979.41535699864</v>
       </c>
       <c r="H6" t="n">
-        <v>202199.7258008026</v>
+        <v>202148.6951386184</v>
       </c>
       <c r="I6" t="n">
-        <v>202199.7258008027</v>
+        <v>202148.6951386183</v>
       </c>
       <c r="J6" t="n">
-        <v>-32945.48447675873</v>
+        <v>-32996.51513894303</v>
       </c>
       <c r="K6" t="n">
-        <v>202199.7258008026</v>
+        <v>202148.6951386183</v>
       </c>
       <c r="L6" t="n">
-        <v>202199.7258008026</v>
+        <v>202148.6951386184</v>
       </c>
       <c r="M6" t="n">
-        <v>202199.7258008026</v>
+        <v>202148.6951386185</v>
       </c>
       <c r="N6" t="n">
-        <v>202199.7258008026</v>
+        <v>202148.6951386184</v>
       </c>
       <c r="O6" t="n">
-        <v>166843.9838432359</v>
+        <v>166499.439241747</v>
       </c>
       <c r="P6" t="n">
-        <v>166843.9838432358</v>
+        <v>166499.4392417469</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26816,7 +26816,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876013</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>368.0031569662219</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.737036949155233</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>634.6913501810429</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.728503328464916</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>80.49194655707512</v>
       </c>
       <c r="L5" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35020,13 +35020,13 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>898.4659373853249</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>328.0142939661586</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>205.0592278086264</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852553</v>
+        <v>321.0228275868491</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>139.6743035055494</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>707.2639729474876</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>707.2639729474876</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>8.728503328464916</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852553</v>
+        <v>760.9922182254426</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>29.51326903606477</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.643165314145</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>19.53098502454859</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>86.8003148788559</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>385.2564605346102</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>321.0228275868487</v>
+        <v>256.4782487206143</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>29.51326903606492</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852553</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>321.0228275868487</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
